--- a/target/test-classes/Configuration/TestData.xlsx
+++ b/target/test-classes/Configuration/TestData.xlsx
@@ -39,9 +39,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>test2.accelare@outlook.com</t>
+  </si>
+  <si>
+    <t>Test1</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,22 +415,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
